--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_08_beg.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_08_beg.xlsx
@@ -2036,7 +2036,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Jesselton"]That's why Ms. Domma was only the first step in my attempt to stop you from “seeing about that”.
+    <t xml:space="preserve">[name="Jesselton"]That's why Ms. Domma was only the first step in my attempt to stop you from 'seeing about that'.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_08_beg.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_08_beg.xlsx
@@ -1284,7 +1284,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ジェッセルトン"]あなたがそのような覚悟を持って、私たちの些細な取引に背くことを選択するというのなら――
+    <t xml:space="preserve">[name="ジェッセルトン"]あなたがそのような覚悟を持って、我々が交わしたとるに足らない取引に背くことを選択するというのなら――
 </t>
   </si>
   <si>
@@ -1324,7 +1324,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ジェッセルトン"]ですからあなたに「やってみない」ための、一つ目の手段として私はミス・ドゥーマを用意しました。
+    <t xml:space="preserve">[name="ジェッセルトン"]ですからあなたが「やってみない」ための、一つ目の手段として私はミス・ドゥーマを用意しました。
 </t>
   </si>
   <si>
@@ -1368,7 +1368,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ジェッセルトン"]もしミス・ロビンが首尾よくやり遂げていれば、私は何もしなくて済んで、めでたしめでたしだったのです。
+    <t xml:space="preserve">[name="ジェッセルトン"]もしミス・ロビンが首尾よくやり遂げていれば、私は手を出す必要もなく、めでたしめでたしだったのです。
 </t>
   </si>
   <si>
